--- a/Simulation parameters.xlsx
+++ b/Simulation parameters.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaselatour/Multiple_outcomes_pregnancy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaselatour/preg_cohort_construction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E6238-4A8B-084A-842B-D13CD3D2E5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550AE7CF-A538-F142-AD12-E852BF87FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="-280" windowWidth="28800" windowHeight="16180" xr2:uid="{EDFB6D7C-8216-ED43-8AA6-178B9CD2875A}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{EDFB6D7C-8216-ED43-8AA6-178B9CD2875A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phase1" sheetId="6" r:id="rId1"/>
-    <sheet name="Phase2" sheetId="2" r:id="rId2"/>
-    <sheet name="Phase3" sheetId="3" r:id="rId3"/>
-    <sheet name="Phase4" sheetId="5" r:id="rId4"/>
-    <sheet name="Phase5" sheetId="7" r:id="rId5"/>
-    <sheet name="OLD" sheetId="1" r:id="rId6"/>
-    <sheet name="SB_Risk_Preeclampsia" sheetId="4" r:id="rId7"/>
+    <sheet name="SimParameters" sheetId="8" r:id="rId1"/>
+    <sheet name="potential_preg_untrt" sheetId="6" r:id="rId2"/>
+    <sheet name="potential_preg_trt" sheetId="2" r:id="rId3"/>
+    <sheet name="Phase3" sheetId="3" r:id="rId4"/>
+    <sheet name="Phase4" sheetId="5" r:id="rId5"/>
+    <sheet name="Phase5" sheetId="7" r:id="rId6"/>
+    <sheet name="OLD" sheetId="1" r:id="rId7"/>
+    <sheet name="SB_Risk_Preeclampsia" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,17 +48,14 @@
     <author>tc={35C57926-D2D1-1E4D-B53B-E5E2E4FD75E7}</author>
     <author>tc={9A5BA4F2-D71D-6E40-92FE-646A717AC649}</author>
     <author>tc={AA203F26-57EB-FD4D-96A8-1E3EC58078F0}</author>
-    <author>tc={136807CB-0C11-AF4B-B455-BA7E6BADFC55}</author>
-    <author>tc={A72EBEFA-8135-284E-ADA0-30EDB9DF31E0}</author>
-    <author>tc={E0F99EF9-03C3-8340-B100-DF68AE4D4DF8}</author>
     <author>tc={BA1965E4-CB1E-A446-858D-2C189AC85BC3}</author>
-    <author>tc={B884D584-EC30-294D-8EAD-B0E58A3378E6}</author>
-    <author>tc={AAEBD684-F7D6-6E4D-896A-3757334CE7FF}</author>
     <author>tc={73131F6C-4FDD-8242-81D0-C94D07ECA3E3}</author>
     <author>tc={F0934731-78BA-194A-B9CD-EC5F1F6C9CE0}</author>
+    <author>tc={3BD33B62-4B89-784D-BCF9-57648E8A7B32}</author>
+    <author>tc={7B3AA43D-BF71-F649-BE1E-473187DEA264}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{35C57926-D2D1-1E4D-B53B-E5E2E4FD75E7}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{35C57926-D2D1-1E4D-B53B-E5E2E4FD75E7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +63,7 @@
     https://www.medicalnewstoday.com/articles/322634#miscarriage-rates-by-week</t>
       </text>
     </comment>
-    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{9A5BA4F2-D71D-6E40-92FE-646A717AC649}">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{9A5BA4F2-D71D-6E40-92FE-646A717AC649}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +71,7 @@
     Originally had this as 0.5, but it was really high and lots of people not included in trial. Brought this down to 0.2. Same with gw 1</t>
       </text>
     </comment>
-    <comment ref="B4" authorId="2" shapeId="0" xr:uid="{AA203F26-57EB-FD4D-96A8-1E3EC58078F0}">
+    <comment ref="C4" authorId="2" shapeId="0" xr:uid="{AA203F26-57EB-FD4D-96A8-1E3EC58078F0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,35 +79,7 @@
     Lowered this slightly from 0.2 to 0.1 to improve sample size.</t>
       </text>
     </comment>
-    <comment ref="E4" authorId="3" shapeId="0" xr:uid="{136807CB-0C11-AF4B-B455-BA7E6BADFC55}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Previously 0 because got confused on gw from conception and from LMP
-Reply:
-    Increasing slightly so that we can increase the number of participants in the sample for now. Previously 0.1.</t>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="4" shapeId="0" xr:uid="{A72EBEFA-8135-284E-ADA0-30EDB9DF31E0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Previously 0 because got confused on gw from conception and from LMP
-Reply:
-    Increased slightly to increase # of participants. From 0.2 to 0.3</t>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="5" shapeId="0" xr:uid="{E0F99EF9-03C3-8340-B100-DF68AE4D4DF8}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Previously 0.5. However, increased it to 1 because this is 20 gw from LMP. </t>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="6" shapeId="0" xr:uid="{BA1965E4-CB1E-A446-858D-2C189AC85BC3}">
+    <comment ref="C21" authorId="3" shapeId="0" xr:uid="{BA1965E4-CB1E-A446-858D-2C189AC85BC3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,23 +87,7 @@
     All the 0.003s — https://stacks.cdc.gov/view/cdc/61387</t>
       </text>
     </comment>
-    <comment ref="E21" authorId="7" shapeId="0" xr:uid="{B884D584-EC30-294D-8EAD-B0E58A3378E6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Previously 0.5. See above</t>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="8" shapeId="0" xr:uid="{AAEBD684-F7D6-6E4D-896A-3757334CE7FF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Previously 1. See above comment.</t>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="9" shapeId="0" xr:uid="{73131F6C-4FDD-8242-81D0-C94D07ECA3E3}">
+    <comment ref="D26" authorId="4" shapeId="0" xr:uid="{73131F6C-4FDD-8242-81D0-C94D07ECA3E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,12 +95,28 @@
     https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</t>
       </text>
     </comment>
-    <comment ref="B37" authorId="10" shapeId="0" xr:uid="{F0934731-78BA-194A-B9CD-EC5F1F6C9CE0}">
+    <comment ref="C37" authorId="5" shapeId="0" xr:uid="{F0934731-78BA-194A-B9CD-EC5F1F6C9CE0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3719843/#:~:text=The%20risk%20of%20stillbirth%20at,at%2042%20weeks%20of%20gestation.</t>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="6" shapeId="0" xr:uid="{3BD33B62-4B89-784D-BCF9-57648E8A7B32}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</t>
+      </text>
+    </comment>
+    <comment ref="D108" authorId="7" shapeId="0" xr:uid="{7B3AA43D-BF71-F649-BE1E-473187DEA264}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</t>
       </text>
     </comment>
   </commentList>
@@ -156,50 +126,14 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2761945B-CCCA-C740-B794-13037E1324C6}</author>
-    <author>tc={642DC8BF-9352-A841-B7D5-D2353D7406FD}</author>
-    <author>tc={6E365861-8AD7-9741-8A7F-D39E04493C98}</author>
-    <author>tc={34791295-B5FE-8945-B66F-FD8231C95036}</author>
-    <author>tc={4C6D7E70-155D-F143-8348-12998FB8F68A}</author>
-    <author>tc={0750D8B8-3F43-0249-A235-DC6D645DAACD}</author>
-    <author>tc={2685FFE7-F524-DD45-9B6C-36B63629A0C0}</author>
+    <author>tc={E4001C83-F249-6444-A77F-28633B3A7B29}</author>
+    <author>tc={D3951916-579F-9441-90C6-D3B056A29F66}</author>
+    <author>tc={8C8F274C-85B2-394B-AD03-43C0661C6744}</author>
+    <author>tc={F2369221-CB12-D746-BE61-8D48FFA61906}</author>
+    <author>tc={5A39B3F8-BF99-5541-90CC-F9ACE8CBD01D}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2761945B-CCCA-C740-B794-13037E1324C6}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    https://www.medicalnewstoday.com/articles/322634#miscarriage-rates-by-week
-Reply:
-    Decreased risk of fetal death at each gestational week (0.8*). However, didn’t change the probabilities of live birth.</t>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{642DC8BF-9352-A841-B7D5-D2353D7406FD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Values for gw 0-4 are the same because people wouldn’t actually be treated at this point, even if they entered the trial. This will be dealt with on the coding side.</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{6E365861-8AD7-9741-8A7F-D39E04493C98}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Originally had this as 0.5, but it was really high and lots of people not included in trial. Brought this down to 0.2. Same with gw 1</t>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="3" shapeId="0" xr:uid="{34791295-B5FE-8945-B66F-FD8231C95036}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Lowered this slightly from 0.2 to 0.1 to improve sample size.</t>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="4" shapeId="0" xr:uid="{4C6D7E70-155D-F143-8348-12998FB8F68A}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{E4001C83-F249-6444-A77F-28633B3A7B29}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,22 +141,36 @@
     All the 0.003s — https://stacks.cdc.gov/view/cdc/61387</t>
       </text>
     </comment>
-    <comment ref="D26" authorId="5" shapeId="0" xr:uid="{0750D8B8-3F43-0249-A235-DC6D645DAACD}">
+    <comment ref="D26" authorId="1" shapeId="0" xr:uid="{D3951916-579F-9441-90C6-D3B056A29F66}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.
-Reply:
-    Going to have it decrease the risk of preterm birth</t>
+    https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="6" shapeId="0" xr:uid="{2685FFE7-F524-DD45-9B6C-36B63629A0C0}">
+    <comment ref="C37" authorId="2" shapeId="0" xr:uid="{8C8F274C-85B2-394B-AD03-43C0661C6744}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3719843/#:~:text=The%20risk%20of%20stillbirth%20at,at%2042%20weeks%20of%20gestation.</t>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{F2369221-CB12-D746-BE61-8D48FFA61906}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</t>
+      </text>
+    </comment>
+    <comment ref="D108" authorId="4" shapeId="0" xr:uid="{5A39B3F8-BF99-5541-90CC-F9ACE8CBD01D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</t>
       </text>
     </comment>
   </commentList>
@@ -400,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>p_fetaldeath</t>
   </si>
@@ -474,9 +422,6 @@
     <t>p_sga</t>
   </si>
   <si>
-    <t>trt</t>
-  </si>
-  <si>
     <t>p_fetaldeath_next</t>
   </si>
   <si>
@@ -487,9 +432,6 @@
   </si>
   <si>
     <t>gestweek_conception</t>
-  </si>
-  <si>
-    <t>p_index</t>
   </si>
   <si>
     <t>treat_effect_OR</t>
@@ -509,12 +451,42 @@
   <si>
     <t>p_censoring</t>
   </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Abortion</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment Effect </t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Severity -&gt; Abortion</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,8 +515,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +532,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9939A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,12 +577,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9939A"/>
+      <color rgb="FFF98B90"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -901,76 +909,49 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" dT="2023-10-20T20:28:15.91" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{35C57926-D2D1-1E4D-B53B-E5E2E4FD75E7}">
+  <threadedComment ref="C1" dT="2023-10-20T20:28:15.91" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{35C57926-D2D1-1E4D-B53B-E5E2E4FD75E7}">
     <text>https://www.medicalnewstoday.com/articles/322634#miscarriage-rates-by-week</text>
   </threadedComment>
-  <threadedComment ref="B2" dT="2023-11-27T01:39:00.90" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{9A5BA4F2-D71D-6E40-92FE-646A717AC649}">
+  <threadedComment ref="C2" dT="2023-11-27T01:39:00.90" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{9A5BA4F2-D71D-6E40-92FE-646A717AC649}">
     <text>Originally had this as 0.5, but it was really high and lots of people not included in trial. Brought this down to 0.2. Same with gw 1</text>
   </threadedComment>
-  <threadedComment ref="B4" dT="2023-11-27T01:41:40.99" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{AA203F26-57EB-FD4D-96A8-1E3EC58078F0}">
+  <threadedComment ref="C4" dT="2023-11-27T01:41:40.99" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{AA203F26-57EB-FD4D-96A8-1E3EC58078F0}">
     <text>Lowered this slightly from 0.2 to 0.1 to improve sample size.</text>
   </threadedComment>
-  <threadedComment ref="E4" dT="2023-12-15T18:58:17.41" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{136807CB-0C11-AF4B-B455-BA7E6BADFC55}">
-    <text>Previously 0 because got confused on gw from conception and from LMP</text>
-  </threadedComment>
-  <threadedComment ref="E4" dT="2024-01-02T16:11:10.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{3D49A58A-FD00-2148-8526-B40661E9E107}" parentId="{136807CB-0C11-AF4B-B455-BA7E6BADFC55}">
-    <text>Increasing slightly so that we can increase the number of participants in the sample for now. Previously 0.1.</text>
-  </threadedComment>
-  <threadedComment ref="E5" dT="2023-12-15T18:58:17.41" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{A72EBEFA-8135-284E-ADA0-30EDB9DF31E0}">
-    <text>Previously 0 because got confused on gw from conception and from LMP</text>
-  </threadedComment>
-  <threadedComment ref="E5" dT="2024-01-02T16:11:31.32" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{ACF83317-8955-5743-AA16-ADD357B2BB13}" parentId="{A72EBEFA-8135-284E-ADA0-30EDB9DF31E0}">
-    <text>Increased slightly to increase # of participants. From 0.2 to 0.3</text>
-  </threadedComment>
-  <threadedComment ref="E20" dT="2023-12-15T18:59:01.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{E0F99EF9-03C3-8340-B100-DF68AE4D4DF8}">
-    <text xml:space="preserve">Previously 0.5. However, increased it to 1 because this is 20 gw from LMP. </text>
-  </threadedComment>
-  <threadedComment ref="B21" dT="2023-10-20T20:32:56.90" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{BA1965E4-CB1E-A446-858D-2C189AC85BC3}">
+  <threadedComment ref="C21" dT="2023-10-20T20:32:56.90" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{BA1965E4-CB1E-A446-858D-2C189AC85BC3}">
     <text>All the 0.003s — https://stacks.cdc.gov/view/cdc/61387</text>
   </threadedComment>
-  <threadedComment ref="E21" dT="2023-12-15T18:59:16.45" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{B884D584-EC30-294D-8EAD-B0E58A3378E6}">
-    <text>Previously 0.5. See above</text>
-  </threadedComment>
-  <threadedComment ref="E22" dT="2023-12-15T18:59:30.81" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{AAEBD684-F7D6-6E4D-896A-3757334CE7FF}">
-    <text>Previously 1. See above comment.</text>
-  </threadedComment>
-  <threadedComment ref="C26" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{73131F6C-4FDD-8242-81D0-C94D07ECA3E3}">
+  <threadedComment ref="D26" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{73131F6C-4FDD-8242-81D0-C94D07ECA3E3}">
     <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</text>
   </threadedComment>
-  <threadedComment ref="B37" dT="2023-10-20T20:29:33.53" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{F0934731-78BA-194A-B9CD-EC5F1F6C9CE0}">
+  <threadedComment ref="C37" dT="2023-10-20T20:29:33.53" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{F0934731-78BA-194A-B9CD-EC5F1F6C9CE0}">
     <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3719843/#:~:text=The%20risk%20of%20stillbirth%20at,at%2042%20weeks%20of%20gestation.</text>
+  </threadedComment>
+  <threadedComment ref="D67" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{3BD33B62-4B89-784D-BCF9-57648E8A7B32}">
+    <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</text>
+  </threadedComment>
+  <threadedComment ref="D108" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{7B3AA43D-BF71-F649-BE1E-473187DEA264}">
+    <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2023-10-20T20:28:15.91" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{2761945B-CCCA-C740-B794-13037E1324C6}">
-    <text>https://www.medicalnewstoday.com/articles/322634#miscarriage-rates-by-week</text>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2023-10-27T16:14:10.42" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{B5EC156C-05C8-9940-B248-B21CC12432F7}" parentId="{2761945B-CCCA-C740-B794-13037E1324C6}">
-    <text>Decreased risk of fetal death at each gestational week (0.8*). However, didn’t change the probabilities of live birth.</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2023-11-25T18:21:45.43" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{642DC8BF-9352-A841-B7D5-D2353D7406FD}">
-    <text>Values for gw 0-4 are the same because people wouldn’t actually be treated at this point, even if they entered the trial. This will be dealt with on the coding side.</text>
-  </threadedComment>
-  <threadedComment ref="C2" dT="2023-11-27T01:39:00.90" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{6E365861-8AD7-9741-8A7F-D39E04493C98}">
-    <text>Originally had this as 0.5, but it was really high and lots of people not included in trial. Brought this down to 0.2. Same with gw 1</text>
-  </threadedComment>
-  <threadedComment ref="C4" dT="2023-11-27T01:41:40.99" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{34791295-B5FE-8945-B66F-FD8231C95036}">
-    <text>Lowered this slightly from 0.2 to 0.1 to improve sample size.</text>
-  </threadedComment>
-  <threadedComment ref="C21" dT="2023-10-20T20:32:56.90" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{4C6D7E70-155D-F143-8348-12998FB8F68A}">
+  <threadedComment ref="C21" dT="2023-10-20T20:32:56.90" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{E4001C83-F249-6444-A77F-28633B3A7B29}">
     <text>All the 0.003s — https://stacks.cdc.gov/view/cdc/61387</text>
   </threadedComment>
-  <threadedComment ref="D26" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{0750D8B8-3F43-0249-A235-DC6D645DAACD}">
+  <threadedComment ref="D26" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{D3951916-579F-9441-90C6-D3B056A29F66}">
     <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</text>
   </threadedComment>
-  <threadedComment ref="D26" dT="2023-12-15T03:39:36.56" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{D51B01E8-6637-E44B-A544-4E4553ED1B10}" parentId="{0750D8B8-3F43-0249-A235-DC6D645DAACD}">
-    <text>Going to have it decrease the risk of preterm birth</text>
+  <threadedComment ref="C37" dT="2023-10-20T20:29:33.53" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{8C8F274C-85B2-394B-AD03-43C0661C6744}">
+    <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3719843/#:~:text=The%20risk%20of%20stillbirth%20at,at%2042%20weeks%20of%20gestation.</text>
   </threadedComment>
-  <threadedComment ref="C37" dT="2023-10-20T20:29:33.53" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{2685FFE7-F524-DD45-9B6C-36B63629A0C0}">
-    <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3719843/#:~:text=The%20risk%20of%20stillbirth%20at,at%2042%20weeks%20of%20gestation.</text>
+  <threadedComment ref="D67" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{F2369221-CB12-D746-BE61-8D48FFA61906}">
+    <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</text>
+  </threadedComment>
+  <threadedComment ref="D108" dT="2023-10-20T20:36:59.95" personId="{51D2B8DB-A2F5-4646-800E-4DB3664DB2F8}" id="{5A39B3F8-BF99-5541-90CC-F9ACE8CBD01D}">
+    <text>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9847908/#:~:text=There%20was%20a%20peak%20of,%25)%20occurring%20at%2039%20weeks.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1061,1605 +1042,2422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0633E7-A8AC-2448-856C-6ACF1A963AAB}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBAD042-1D8C-E044-AB59-2B80CE0D260D}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>1-C2-B2</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
         <v>0.8</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>1-C3-B3</f>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0.8</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>1-C4-B4</f>
-        <v>0.9</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>1-C5-B5</f>
-        <v>0.9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>1-C6-B6</f>
-        <v>0.95</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.05</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D41" si="0">1-B7-C7</f>
-        <v>0.95</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.03</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>0.03</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>0.03</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.03</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.03</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.03</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.97</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.01</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.01</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.01</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.01</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.01</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.01</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0.01</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.997</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.997</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.997</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.997</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.997</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C26">
-        <v>0.01</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C27">
-        <v>0.01</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C29">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C30">
-        <v>0.02</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C31">
-        <v>0.02</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C32">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C33">
-        <v>0.03</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C34">
-        <v>0.09</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C35">
-        <v>0.09</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C36">
-        <v>0.09</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <f>2.1/10000</f>
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="C37">
-        <v>0.3</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0.69978999999999991</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>2.7E-4</v>
-      </c>
-      <c r="C38">
-        <v>0.35</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0.64973000000000003</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>3.5E-4</v>
-      </c>
-      <c r="C39">
-        <v>0.7</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0.29965000000000008</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="C40">
-        <v>0.7</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0.29958000000000007</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>6.0999999999999997E-4</v>
-      </c>
-      <c r="C41">
-        <v>0.7</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0.29939000000000004</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1.08E-3</v>
-      </c>
-      <c r="C42">
-        <f>1-B42</f>
-        <v>0.99892000000000003</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E296094E-C959-F34D-935C-7330539695AA}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0633E7-A8AC-2448-856C-6ACF1A963AAB}">
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
         <v>0.2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <f>1-D2-C2</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>0.2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">1-D3-C3</f>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <f>1-D3-C3</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
         <v>0.1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <f>1-D4-C4</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>0.1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <f>1-D5-C5</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>0.8*Phase1!B6</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6" si="1">1-D6-C6</f>
-        <v>0.96</v>
+      <c r="C6" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <f>1-D6-C6</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f>0.8*Phase1!B7</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E41" si="2">1-C7-D7</f>
-        <v>0.96</v>
+      <c r="C7" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:E41" si="0">1-C7-D7</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="9">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f>0.8*Phase1!B8</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>0.97599999999999998</v>
+      <c r="C8" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f>0.8*Phase1!B9</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0.97599999999999998</v>
+      <c r="C9" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>0.8*Phase1!B10</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.97599999999999998</v>
+      <c r="C10" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="9">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <f>0.8*Phase1!B11</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0.97599999999999998</v>
+      <c r="C11" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f>0.8*Phase1!B12</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.97599999999999998</v>
+      <c r="C12" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f>0.8*Phase1!B13</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0.97599999999999998</v>
+      <c r="C13" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f>0.8*Phase1!B14</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0.99199999999999999</v>
+      <c r="C14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f>0.8*Phase1!B15</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0.99199999999999999</v>
+      <c r="C15" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="9">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f>0.8*Phase1!B16</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>0.99199999999999999</v>
+      <c r="C16" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f>0.8*Phase1!B17</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0.99199999999999999</v>
+      <c r="C17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f>0.8*Phase1!B18</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0.99199999999999999</v>
+      <c r="C18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="9">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f>0.8*Phase1!B19</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0.99199999999999999</v>
+      <c r="C19" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="9">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <f>0.8*Phase1!B20</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0.99199999999999999</v>
+      <c r="C20" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="9">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <f>0.8*Phase1!B21</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0.99760000000000004</v>
+      <c r="C21" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="9">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f>0.8*Phase1!B22</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>0.99760000000000004</v>
+      <c r="C22" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.997</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="9">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f>0.8*Phase1!B23</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>0.99760000000000004</v>
+      <c r="C23" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.997</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="9">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f>0.8*Phase1!B24</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>0.99760000000000004</v>
+      <c r="C24" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.997</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f>0.8*Phase1!B25</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>0.99760000000000004</v>
+      <c r="C25" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.997</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="9">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <f>0.8*Phase1!B26</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D26">
-        <f>0.7*Phase1!C26</f>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0.99060000000000004</v>
+      <c r="C26" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f>0.8*Phase1!B27</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D27">
-        <f>0.7*Phase1!C27</f>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>0.99060000000000004</v>
+      <c r="C27" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f>0.8*Phase1!B28</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D28">
-        <f>0.7*Phase1!C28</f>
-        <v>1.0499999999999999E-2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0.98710000000000009</v>
+      <c r="C28" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <f>0.8*Phase1!B29</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D29">
-        <f>0.7*Phase1!C29</f>
-        <v>1.0499999999999999E-2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>0.98710000000000009</v>
+      <c r="C29" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="9">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f>0.8*Phase1!B30</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D30">
-        <f>0.7*Phase1!C30</f>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>0.98360000000000003</v>
+      <c r="C30" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="9">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <f>0.8*Phase1!B31</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D31">
-        <f>0.7*Phase1!C31</f>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0.98360000000000003</v>
+      <c r="C31" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <f>0.8*Phase1!B32</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D32">
-        <f>0.7*Phase1!C32</f>
-        <v>1.7499999999999998E-2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>0.98010000000000008</v>
+      <c r="C32" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <f>0.8*Phase1!B33</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D33">
-        <f>0.7*Phase1!C33</f>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>0.97660000000000002</v>
+      <c r="C33" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f>0.8*Phase1!B34</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D34">
-        <f>0.7*Phase1!C34</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
-        <v>0.9346000000000001</v>
+      <c r="C34" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="9">
+        <v>0</v>
+      </c>
+      <c r="B35" s="9">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <f>0.8*Phase1!B35</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D35">
-        <f>0.7*Phase1!C35</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>0.9346000000000001</v>
+      <c r="C35" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="9">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <f>0.8*Phase1!B36</f>
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="D36">
-        <f>0.7*Phase1!C36</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>0.9346000000000001</v>
+      <c r="C36" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="9">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <f>0.8*Phase1!B37</f>
-        <v>1.6800000000000002E-4</v>
-      </c>
-      <c r="D37">
-        <f>0.7*Phase1!C37</f>
-        <v>0.21</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>0.78983200000000009</v>
+      <c r="C37" s="9">
+        <f>2.1/10000</f>
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69978999999999991</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="9">
+        <v>0</v>
+      </c>
+      <c r="B38" s="9">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <f>0.8*Phase1!B38</f>
-        <v>2.1600000000000002E-4</v>
-      </c>
-      <c r="D38">
-        <f>0.7*Phase1!C38</f>
-        <v>0.24499999999999997</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>0.75478400000000001</v>
+      <c r="C38" s="9">
+        <v>2.7E-4</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.64973000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="9">
+        <v>0</v>
+      </c>
+      <c r="B39" s="9">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <f>0.8*Phase1!B39</f>
-        <v>2.8000000000000003E-4</v>
-      </c>
-      <c r="D39" s="5">
-        <f>1.05*Phase1!C39</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>0.26472000000000007</v>
+      <c r="C39" s="9">
+        <v>3.5E-4</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29965000000000008</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="9">
+        <v>0</v>
+      </c>
+      <c r="B40" s="9">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <f>0.8*Phase1!B40</f>
-        <v>3.3600000000000004E-4</v>
-      </c>
-      <c r="D40" s="5">
-        <f>1.05*Phase1!C40</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>0.26466400000000001</v>
+      <c r="C40" s="9">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29958000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="9">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <f>0.8*Phase1!B41</f>
-        <v>4.8799999999999999E-4</v>
-      </c>
-      <c r="D41" s="5">
-        <f>1.05*Phase1!C41</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>0.26451199999999997</v>
+      <c r="C41" s="9">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29939000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="9">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <f>0.8*Phase1!B42</f>
-        <v>8.6400000000000008E-4</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="9">
+        <v>1.08E-3</v>
+      </c>
+      <c r="D42" s="9">
         <f>1-C42</f>
-        <v>0.99913600000000002</v>
-      </c>
-      <c r="E42">
+        <v>0.99892000000000003</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>1</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <f>C2*SimParameters!B9</f>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <f>1-D43-C43</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <f>C3*SimParameters!B9</f>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <f>1-D44-C44</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>1</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <f>C4*SimParameters!B9</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <f>1-D45-C45</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>1</v>
+      </c>
+      <c r="B46" s="10">
+        <v>3</v>
+      </c>
+      <c r="C46" s="10">
+        <f>C5*SimParameters!B9</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <f>1-D46-C46</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10">
+        <v>4</v>
+      </c>
+      <c r="C47" s="10">
+        <f>C6*SimParameters!B9</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <f>1-D47-C47</f>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10">
+        <v>5</v>
+      </c>
+      <c r="C48" s="10">
+        <f>C7*SimParameters!B9</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" ref="E48:E82" si="1">1-C48-D48</f>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>1</v>
+      </c>
+      <c r="B49" s="10">
+        <v>6</v>
+      </c>
+      <c r="C49" s="10">
+        <f>C8*SimParameters!B9</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="1"/>
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>1</v>
+      </c>
+      <c r="B50" s="10">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10">
+        <f>C9*SimParameters!B9</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="1"/>
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>1</v>
+      </c>
+      <c r="B51" s="10">
+        <v>8</v>
+      </c>
+      <c r="C51" s="10">
+        <f>C10*SimParameters!B9</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="1"/>
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>1</v>
+      </c>
+      <c r="B52" s="10">
+        <v>9</v>
+      </c>
+      <c r="C52" s="10">
+        <f>C11*SimParameters!B9</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="1"/>
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10">
+        <v>10</v>
+      </c>
+      <c r="C53" s="10">
+        <f>C12*SimParameters!B9</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="1"/>
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>1</v>
+      </c>
+      <c r="B54" s="10">
+        <v>11</v>
+      </c>
+      <c r="C54" s="10">
+        <f>C13*SimParameters!B9</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="1"/>
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10">
+        <v>12</v>
+      </c>
+      <c r="C55" s="10">
+        <f>C14*SimParameters!B9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>1</v>
+      </c>
+      <c r="B56" s="10">
+        <v>13</v>
+      </c>
+      <c r="C56" s="10">
+        <f>C15*SimParameters!B9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>1</v>
+      </c>
+      <c r="B57" s="10">
+        <v>14</v>
+      </c>
+      <c r="C57" s="10">
+        <f>C16*SimParameters!B9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>1</v>
+      </c>
+      <c r="B58" s="10">
+        <v>15</v>
+      </c>
+      <c r="C58" s="10">
+        <f>C17*SimParameters!B9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10">
+        <v>16</v>
+      </c>
+      <c r="C59" s="10">
+        <f>C18*SimParameters!B9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>1</v>
+      </c>
+      <c r="B60" s="10">
+        <v>17</v>
+      </c>
+      <c r="C60" s="10">
+        <f>C19*SimParameters!B9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>1</v>
+      </c>
+      <c r="B61" s="10">
+        <v>18</v>
+      </c>
+      <c r="C61" s="10">
+        <f>C20*SimParameters!B9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10">
+        <v>19</v>
+      </c>
+      <c r="C62" s="10">
+        <f>C21*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10">
+        <v>20</v>
+      </c>
+      <c r="C63" s="10">
+        <f>C22*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>1</v>
+      </c>
+      <c r="B64" s="10">
+        <v>21</v>
+      </c>
+      <c r="C64" s="10">
+        <f>C23*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>1</v>
+      </c>
+      <c r="B65" s="10">
+        <v>22</v>
+      </c>
+      <c r="C65" s="10">
+        <f>C24*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>1</v>
+      </c>
+      <c r="B66" s="10">
+        <v>23</v>
+      </c>
+      <c r="C66" s="10">
+        <f>C25*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99670000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>1</v>
+      </c>
+      <c r="B67" s="10">
+        <v>24</v>
+      </c>
+      <c r="C67" s="10">
+        <f>C26*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98670000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>1</v>
+      </c>
+      <c r="B68" s="10">
+        <v>25</v>
+      </c>
+      <c r="C68" s="10">
+        <f>C27*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98670000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>1</v>
+      </c>
+      <c r="B69" s="10">
+        <v>26</v>
+      </c>
+      <c r="C69" s="10">
+        <f>C28*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10">
+        <v>27</v>
+      </c>
+      <c r="C70" s="10">
+        <f>C29*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>1</v>
+      </c>
+      <c r="B71" s="10">
+        <v>28</v>
+      </c>
+      <c r="C71" s="10">
+        <f>C30*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97670000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>1</v>
+      </c>
+      <c r="B72" s="10">
+        <v>29</v>
+      </c>
+      <c r="C72" s="10">
+        <f>C31*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E72" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97670000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>1</v>
+      </c>
+      <c r="B73" s="10">
+        <v>30</v>
+      </c>
+      <c r="C73" s="10">
+        <f>C32*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D73" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97170000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>1</v>
+      </c>
+      <c r="B74" s="10">
+        <v>31</v>
+      </c>
+      <c r="C74" s="10">
+        <f>C33*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="1"/>
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>1</v>
+      </c>
+      <c r="B75" s="10">
+        <v>32</v>
+      </c>
+      <c r="C75" s="10">
+        <f>C34*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90670000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>1</v>
+      </c>
+      <c r="B76" s="10">
+        <v>33</v>
+      </c>
+      <c r="C76" s="10">
+        <f>C35*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90670000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>1</v>
+      </c>
+      <c r="B77" s="10">
+        <v>34</v>
+      </c>
+      <c r="C77" s="10">
+        <f>C36*SimParameters!B9</f>
+        <v>3.3000000000000004E-3</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90670000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>1</v>
+      </c>
+      <c r="B78" s="10">
+        <v>35</v>
+      </c>
+      <c r="C78" s="10">
+        <f>C37*SimParameters!B9</f>
+        <v>2.3100000000000003E-4</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E78" s="10">
+        <f t="shared" si="1"/>
+        <v>0.69976900000000009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>1</v>
+      </c>
+      <c r="B79" s="10">
+        <v>36</v>
+      </c>
+      <c r="C79" s="10">
+        <f>C38*SimParameters!B9</f>
+        <v>2.9700000000000001E-4</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E79" s="10">
+        <f t="shared" si="1"/>
+        <v>0.64970300000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>1</v>
+      </c>
+      <c r="B80" s="10">
+        <v>37</v>
+      </c>
+      <c r="C80" s="10">
+        <f>C39*SimParameters!B9</f>
+        <v>3.8500000000000003E-4</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E80" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29961500000000008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>1</v>
+      </c>
+      <c r="B81" s="10">
+        <v>38</v>
+      </c>
+      <c r="C81" s="10">
+        <f>C40*SimParameters!B9</f>
+        <v>4.6200000000000006E-4</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E81" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29953800000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>1</v>
+      </c>
+      <c r="B82" s="10">
+        <v>39</v>
+      </c>
+      <c r="C82" s="10">
+        <f>C41*SimParameters!B9</f>
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E82" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29932900000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>1</v>
+      </c>
+      <c r="B83" s="10">
+        <v>40</v>
+      </c>
+      <c r="C83" s="10">
+        <f>C42*SimParameters!B9</f>
+        <v>1.188E-3</v>
+      </c>
+      <c r="D83" s="10">
+        <f>1-C83</f>
+        <v>0.99881200000000003</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>2</v>
+      </c>
+      <c r="B84" s="11">
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
+        <f>C2*SimParameters!B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="D84" s="11">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f>1-D84-C84</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>2</v>
+      </c>
+      <c r="B85" s="11">
+        <v>1</v>
+      </c>
+      <c r="C85" s="11">
+        <f>C3*SimParameters!B10</f>
+        <v>0.24</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f>1-D85-C85</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>2</v>
+      </c>
+      <c r="B86" s="11">
+        <v>2</v>
+      </c>
+      <c r="C86" s="11">
+        <f>C4*SimParameters!B10</f>
+        <v>0.12</v>
+      </c>
+      <c r="D86" s="11">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f>1-D86-C86</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>2</v>
+      </c>
+      <c r="B87" s="11">
+        <v>3</v>
+      </c>
+      <c r="C87" s="11">
+        <f>C5*SimParameters!B10</f>
+        <v>0.12</v>
+      </c>
+      <c r="D87" s="11">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f>1-D87-C87</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>2</v>
+      </c>
+      <c r="B88" s="11">
+        <v>4</v>
+      </c>
+      <c r="C88" s="11">
+        <f>C6*SimParameters!B10</f>
+        <v>0.06</v>
+      </c>
+      <c r="D88" s="11">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f>1-D88-C88</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>2</v>
+      </c>
+      <c r="B89" s="11">
+        <v>5</v>
+      </c>
+      <c r="C89" s="11">
+        <f>C7*SimParameters!B10</f>
+        <v>0.06</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" ref="E89:E123" si="2">1-C89-D89</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="11">
+        <v>2</v>
+      </c>
+      <c r="B90" s="11">
+        <v>6</v>
+      </c>
+      <c r="C90" s="11">
+        <f>C8*SimParameters!B10</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
+        <v>2</v>
+      </c>
+      <c r="B91" s="11">
+        <v>7</v>
+      </c>
+      <c r="C91" s="11">
+        <f>C9*SimParameters!B10</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D91" s="11">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
+        <v>2</v>
+      </c>
+      <c r="B92" s="11">
+        <v>8</v>
+      </c>
+      <c r="C92" s="11">
+        <f>C10*SimParameters!B10</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D92" s="11">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>2</v>
+      </c>
+      <c r="B93" s="11">
+        <v>9</v>
+      </c>
+      <c r="C93" s="11">
+        <f>C11*SimParameters!B10</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D93" s="11">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
+        <v>2</v>
+      </c>
+      <c r="B94" s="11">
+        <v>10</v>
+      </c>
+      <c r="C94" s="11">
+        <f>C12*SimParameters!B10</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
+        <v>2</v>
+      </c>
+      <c r="B95" s="11">
+        <v>11</v>
+      </c>
+      <c r="C95" s="11">
+        <f>C13*SimParameters!B10</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
+        <v>2</v>
+      </c>
+      <c r="B96" s="11">
+        <v>12</v>
+      </c>
+      <c r="C96" s="11">
+        <f>C14*SimParameters!B10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
+        <v>2</v>
+      </c>
+      <c r="B97" s="11">
+        <v>13</v>
+      </c>
+      <c r="C97" s="11">
+        <f>C15*SimParameters!B10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="11">
+        <v>2</v>
+      </c>
+      <c r="B98" s="11">
+        <v>14</v>
+      </c>
+      <c r="C98" s="11">
+        <f>C16*SimParameters!B10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
+        <v>2</v>
+      </c>
+      <c r="B99" s="11">
+        <v>15</v>
+      </c>
+      <c r="C99" s="11">
+        <f>C17*SimParameters!B10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="11">
+        <v>2</v>
+      </c>
+      <c r="B100" s="11">
+        <v>16</v>
+      </c>
+      <c r="C100" s="11">
+        <f>C18*SimParameters!B10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D100" s="11">
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
+        <v>2</v>
+      </c>
+      <c r="B101" s="11">
+        <v>17</v>
+      </c>
+      <c r="C101" s="11">
+        <f>C19*SimParameters!B10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D101" s="11">
+        <v>0</v>
+      </c>
+      <c r="E101" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="11">
+        <v>2</v>
+      </c>
+      <c r="B102" s="11">
+        <v>18</v>
+      </c>
+      <c r="C102" s="11">
+        <f>C20*SimParameters!B10</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D102" s="11">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="11">
+        <v>2</v>
+      </c>
+      <c r="B103" s="11">
+        <v>19</v>
+      </c>
+      <c r="C103" s="11">
+        <f>C21*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
+      <c r="E103" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="11">
+        <v>2</v>
+      </c>
+      <c r="B104" s="11">
+        <v>20</v>
+      </c>
+      <c r="C104" s="11">
+        <f>C22*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D104" s="11">
+        <v>0</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="11">
+        <v>2</v>
+      </c>
+      <c r="B105" s="11">
+        <v>21</v>
+      </c>
+      <c r="C105" s="11">
+        <f>C23*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D105" s="11">
+        <v>0</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="11">
+        <v>2</v>
+      </c>
+      <c r="B106" s="11">
+        <v>22</v>
+      </c>
+      <c r="C106" s="11">
+        <f>C24*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D106" s="11">
+        <v>0</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="11">
+        <v>2</v>
+      </c>
+      <c r="B107" s="11">
+        <v>23</v>
+      </c>
+      <c r="C107" s="11">
+        <f>C25*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99639999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="11">
+        <v>2</v>
+      </c>
+      <c r="B108" s="11">
+        <v>24</v>
+      </c>
+      <c r="C108" s="11">
+        <f>C26*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D108" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98639999999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="11">
+        <v>2</v>
+      </c>
+      <c r="B109" s="11">
+        <v>25</v>
+      </c>
+      <c r="C109" s="11">
+        <f>C27*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D109" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98639999999999994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="11">
+        <v>2</v>
+      </c>
+      <c r="B110" s="11">
+        <v>26</v>
+      </c>
+      <c r="C110" s="11">
+        <f>C28*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D110" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E110" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98139999999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="11">
+        <v>2</v>
+      </c>
+      <c r="B111" s="11">
+        <v>27</v>
+      </c>
+      <c r="C111" s="11">
+        <f>C29*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D111" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E111" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98139999999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="11">
+        <v>2</v>
+      </c>
+      <c r="B112" s="11">
+        <v>28</v>
+      </c>
+      <c r="C112" s="11">
+        <f>C30*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E112" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97639999999999993</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="11">
+        <v>2</v>
+      </c>
+      <c r="B113" s="11">
+        <v>29</v>
+      </c>
+      <c r="C113" s="11">
+        <f>C31*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E113" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97639999999999993</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="11">
+        <v>2</v>
+      </c>
+      <c r="B114" s="11">
+        <v>30</v>
+      </c>
+      <c r="C114" s="11">
+        <f>C32*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D114" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E114" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97139999999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="11">
+        <v>2</v>
+      </c>
+      <c r="B115" s="11">
+        <v>31</v>
+      </c>
+      <c r="C115" s="11">
+        <f>C33*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E115" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96639999999999993</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="11">
+        <v>2</v>
+      </c>
+      <c r="B116" s="11">
+        <v>32</v>
+      </c>
+      <c r="C116" s="11">
+        <f>C34*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D116" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E116" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90639999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="11">
+        <v>2</v>
+      </c>
+      <c r="B117" s="11">
+        <v>33</v>
+      </c>
+      <c r="C117" s="11">
+        <f>C35*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E117" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90639999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="11">
+        <v>2</v>
+      </c>
+      <c r="B118" s="11">
+        <v>34</v>
+      </c>
+      <c r="C118" s="11">
+        <f>C36*SimParameters!B10</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D118" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E118" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90639999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="11">
+        <v>2</v>
+      </c>
+      <c r="B119" s="11">
+        <v>35</v>
+      </c>
+      <c r="C119" s="11">
+        <f>C37*SimParameters!B10</f>
+        <v>2.52E-4</v>
+      </c>
+      <c r="D119" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E119" s="11">
+        <f t="shared" si="2"/>
+        <v>0.69974800000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="11">
+        <v>2</v>
+      </c>
+      <c r="B120" s="11">
+        <v>36</v>
+      </c>
+      <c r="C120" s="11">
+        <f>C38*SimParameters!B10</f>
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="D120" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E120" s="11">
+        <f t="shared" si="2"/>
+        <v>0.64967600000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="11">
+        <v>2</v>
+      </c>
+      <c r="B121" s="11">
+        <v>37</v>
+      </c>
+      <c r="C121" s="11">
+        <f>C39*SimParameters!B10</f>
+        <v>4.1999999999999996E-4</v>
+      </c>
+      <c r="D121" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E121" s="11">
+        <f t="shared" si="2"/>
+        <v>0.29958000000000007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="11">
+        <v>2</v>
+      </c>
+      <c r="B122" s="11">
+        <v>38</v>
+      </c>
+      <c r="C122" s="11">
+        <f>C40*SimParameters!B10</f>
+        <v>5.04E-4</v>
+      </c>
+      <c r="D122" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E122" s="11">
+        <f t="shared" si="2"/>
+        <v>0.2994960000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="11">
+        <v>2</v>
+      </c>
+      <c r="B123" s="11">
+        <v>39</v>
+      </c>
+      <c r="C123" s="11">
+        <f>C41*SimParameters!B10</f>
+        <v>7.319999999999999E-4</v>
+      </c>
+      <c r="D123" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E123" s="11">
+        <f t="shared" si="2"/>
+        <v>0.29926800000000009</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="11">
+        <v>2</v>
+      </c>
+      <c r="B124" s="11">
+        <v>40</v>
+      </c>
+      <c r="C124" s="11">
+        <f>C42*SimParameters!B10</f>
+        <v>1.2960000000000001E-3</v>
+      </c>
+      <c r="D124" s="11">
+        <f>1-C124</f>
+        <v>0.99870400000000004</v>
+      </c>
+      <c r="E124" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2670,6 +3468,2382 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E296094E-C959-F34D-935C-7330539695AA}">
+  <dimension ref="A1:E124"/>
+  <sheetViews>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:A124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <f>potential_preg_untrt!C2*SimParameters!B3</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <f>1-D2-C2</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <f>potential_preg_untrt!C3*SimParameters!B3</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <f>1-D3-C3</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <f>potential_preg_untrt!C4*SimParameters!B3</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <f>1-D4-C4</f>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <f>potential_preg_untrt!C5*SimParameters!B3</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <f>1-D5-C5</f>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <f>potential_preg_untrt!C6*SimParameters!B3</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <f>1-D6-C6</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <f>potential_preg_untrt!C7*SimParameters!B3</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:E41" si="0">1-C7-D7</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <f>potential_preg_untrt!C8*SimParameters!B3</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <f>potential_preg_untrt!C9*SimParameters!B3</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9">
+        <f>potential_preg_untrt!C10*SimParameters!B3</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <f>potential_preg_untrt!C11*SimParameters!B3</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <f>potential_preg_untrt!C12*SimParameters!B3</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9">
+        <f>potential_preg_untrt!C13*SimParameters!B3</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9">
+        <f>potential_preg_untrt!C14*SimParameters!B3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <f>potential_preg_untrt!C15*SimParameters!B3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9">
+        <f>potential_preg_untrt!C16*SimParameters!B3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <f>potential_preg_untrt!C17*SimParameters!B3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9">
+        <f>potential_preg_untrt!C18*SimParameters!B3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9">
+        <f>potential_preg_untrt!C19*SimParameters!B3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9">
+        <f>potential_preg_untrt!C20*SimParameters!B3</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9">
+        <f>potential_preg_untrt!C21*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <f>potential_preg_untrt!C22*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
+        <f>potential_preg_untrt!C23*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9">
+        <f>potential_preg_untrt!C24*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9">
+        <f>potential_preg_untrt!C25*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9">
+        <f>potential_preg_untrt!C26*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9">
+        <f>potential_preg_untrt!C27*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9">
+        <f>potential_preg_untrt!C28*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9">
+        <f>potential_preg_untrt!C29*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9">
+        <f>potential_preg_untrt!C30*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97760000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9">
+        <f>potential_preg_untrt!C31*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97760000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9">
+        <v>30</v>
+      </c>
+      <c r="C32" s="9">
+        <f>potential_preg_untrt!C32*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97260000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9">
+        <f>potential_preg_untrt!C33*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.96760000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>32</v>
+      </c>
+      <c r="C34" s="9">
+        <f>potential_preg_untrt!C34*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90760000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>0</v>
+      </c>
+      <c r="B35" s="9">
+        <v>33</v>
+      </c>
+      <c r="C35" s="9">
+        <f>potential_preg_untrt!C35*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90760000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9">
+        <v>34</v>
+      </c>
+      <c r="C36" s="9">
+        <f>potential_preg_untrt!C36*SimParameters!B3</f>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90760000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9">
+        <v>35</v>
+      </c>
+      <c r="C37" s="9">
+        <f>potential_preg_untrt!C37*SimParameters!B3</f>
+        <v>1.6800000000000002E-4</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69983200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>0</v>
+      </c>
+      <c r="B38" s="9">
+        <v>36</v>
+      </c>
+      <c r="C38" s="9">
+        <f>potential_preg_untrt!C38*SimParameters!B3</f>
+        <v>2.1600000000000002E-4</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.64978400000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>0</v>
+      </c>
+      <c r="B39" s="9">
+        <v>37</v>
+      </c>
+      <c r="C39" s="9">
+        <f>potential_preg_untrt!C39*SimParameters!B3</f>
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2997200000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>0</v>
+      </c>
+      <c r="B40" s="9">
+        <v>38</v>
+      </c>
+      <c r="C40" s="9">
+        <f>potential_preg_untrt!C40*SimParameters!B3</f>
+        <v>3.3600000000000004E-4</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29966400000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9">
+        <f>potential_preg_untrt!C41*SimParameters!B3</f>
+        <v>4.8799999999999999E-4</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.299512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9">
+        <f>potential_preg_untrt!C42*SimParameters!B3</f>
+        <v>8.6400000000000008E-4</v>
+      </c>
+      <c r="D42" s="9">
+        <f>1-C42</f>
+        <v>0.99913600000000002</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>1</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10">
+        <f>potential_preg_untrt!C43*SimParameters!B3</f>
+        <v>0.17600000000000005</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <f>1-D43-C43</f>
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <f>potential_preg_untrt!C44*SimParameters!B3</f>
+        <v>0.17600000000000005</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <f>1-D44-C44</f>
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>1</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <f>potential_preg_untrt!C45*SimParameters!B3</f>
+        <v>8.8000000000000023E-2</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <f>1-D45-C45</f>
+        <v>0.91199999999999992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>1</v>
+      </c>
+      <c r="B46" s="10">
+        <v>3</v>
+      </c>
+      <c r="C46" s="10">
+        <f>potential_preg_untrt!C46*SimParameters!B3</f>
+        <v>8.8000000000000023E-2</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <f>1-D46-C46</f>
+        <v>0.91199999999999992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10">
+        <v>4</v>
+      </c>
+      <c r="C47" s="10">
+        <f>potential_preg_untrt!C47*SimParameters!B3</f>
+        <v>4.4000000000000011E-2</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <f>1-D47-C47</f>
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10">
+        <v>5</v>
+      </c>
+      <c r="C48" s="10">
+        <f>potential_preg_untrt!C48*SimParameters!B3</f>
+        <v>4.4000000000000011E-2</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" ref="E48:E82" si="1">1-C48-D48</f>
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>1</v>
+      </c>
+      <c r="B49" s="10">
+        <v>6</v>
+      </c>
+      <c r="C49" s="10">
+        <f>potential_preg_untrt!C49*SimParameters!B3</f>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97360000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>1</v>
+      </c>
+      <c r="B50" s="10">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10">
+        <f>potential_preg_untrt!C50*SimParameters!B3</f>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97360000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>1</v>
+      </c>
+      <c r="B51" s="10">
+        <v>8</v>
+      </c>
+      <c r="C51" s="10">
+        <f>potential_preg_untrt!C51*SimParameters!B3</f>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97360000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>1</v>
+      </c>
+      <c r="B52" s="10">
+        <v>9</v>
+      </c>
+      <c r="C52" s="10">
+        <f>potential_preg_untrt!C52*SimParameters!B3</f>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97360000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10">
+        <v>10</v>
+      </c>
+      <c r="C53" s="10">
+        <f>potential_preg_untrt!C53*SimParameters!B3</f>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97360000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>1</v>
+      </c>
+      <c r="B54" s="10">
+        <v>11</v>
+      </c>
+      <c r="C54" s="10">
+        <f>potential_preg_untrt!C54*SimParameters!B3</f>
+        <v>2.6400000000000003E-2</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97360000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10">
+        <v>12</v>
+      </c>
+      <c r="C55" s="10">
+        <f>potential_preg_untrt!C55*SimParameters!B3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>1</v>
+      </c>
+      <c r="B56" s="10">
+        <v>13</v>
+      </c>
+      <c r="C56" s="10">
+        <f>potential_preg_untrt!C56*SimParameters!B3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>1</v>
+      </c>
+      <c r="B57" s="10">
+        <v>14</v>
+      </c>
+      <c r="C57" s="10">
+        <f>potential_preg_untrt!C57*SimParameters!B3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>1</v>
+      </c>
+      <c r="B58" s="10">
+        <v>15</v>
+      </c>
+      <c r="C58" s="10">
+        <f>potential_preg_untrt!C58*SimParameters!B3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10">
+        <v>16</v>
+      </c>
+      <c r="C59" s="10">
+        <f>potential_preg_untrt!C59*SimParameters!B3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>1</v>
+      </c>
+      <c r="B60" s="10">
+        <v>17</v>
+      </c>
+      <c r="C60" s="10">
+        <f>potential_preg_untrt!C60*SimParameters!B3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>1</v>
+      </c>
+      <c r="B61" s="10">
+        <v>18</v>
+      </c>
+      <c r="C61" s="10">
+        <f>potential_preg_untrt!C61*SimParameters!B3</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10">
+        <v>19</v>
+      </c>
+      <c r="C62" s="10">
+        <f>potential_preg_untrt!C62*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99736000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>1</v>
+      </c>
+      <c r="B63" s="10">
+        <v>20</v>
+      </c>
+      <c r="C63" s="10">
+        <f>potential_preg_untrt!C63*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99736000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>1</v>
+      </c>
+      <c r="B64" s="10">
+        <v>21</v>
+      </c>
+      <c r="C64" s="10">
+        <f>potential_preg_untrt!C64*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99736000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>1</v>
+      </c>
+      <c r="B65" s="10">
+        <v>22</v>
+      </c>
+      <c r="C65" s="10">
+        <f>potential_preg_untrt!C65*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99736000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>1</v>
+      </c>
+      <c r="B66" s="10">
+        <v>23</v>
+      </c>
+      <c r="C66" s="10">
+        <f>potential_preg_untrt!C66*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="1"/>
+        <v>0.99736000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>1</v>
+      </c>
+      <c r="B67" s="10">
+        <v>24</v>
+      </c>
+      <c r="C67" s="10">
+        <f>potential_preg_untrt!C67*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98736000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>1</v>
+      </c>
+      <c r="B68" s="10">
+        <v>25</v>
+      </c>
+      <c r="C68" s="10">
+        <f>potential_preg_untrt!C68*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98736000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>1</v>
+      </c>
+      <c r="B69" s="10">
+        <v>26</v>
+      </c>
+      <c r="C69" s="10">
+        <f>potential_preg_untrt!C69*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98236000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10">
+        <v>27</v>
+      </c>
+      <c r="C70" s="10">
+        <f>potential_preg_untrt!C70*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="1"/>
+        <v>0.98236000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>1</v>
+      </c>
+      <c r="B71" s="10">
+        <v>28</v>
+      </c>
+      <c r="C71" s="10">
+        <f>potential_preg_untrt!C71*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97736000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>1</v>
+      </c>
+      <c r="B72" s="10">
+        <v>29</v>
+      </c>
+      <c r="C72" s="10">
+        <f>potential_preg_untrt!C72*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E72" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97736000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>1</v>
+      </c>
+      <c r="B73" s="10">
+        <v>30</v>
+      </c>
+      <c r="C73" s="10">
+        <f>potential_preg_untrt!C73*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D73" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="1"/>
+        <v>0.97236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>1</v>
+      </c>
+      <c r="B74" s="10">
+        <v>31</v>
+      </c>
+      <c r="C74" s="10">
+        <f>potential_preg_untrt!C74*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="1"/>
+        <v>0.96736</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>1</v>
+      </c>
+      <c r="B75" s="10">
+        <v>32</v>
+      </c>
+      <c r="C75" s="10">
+        <f>potential_preg_untrt!C75*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90736000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>1</v>
+      </c>
+      <c r="B76" s="10">
+        <v>33</v>
+      </c>
+      <c r="C76" s="10">
+        <f>potential_preg_untrt!C76*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90736000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>1</v>
+      </c>
+      <c r="B77" s="10">
+        <v>34</v>
+      </c>
+      <c r="C77" s="10">
+        <f>potential_preg_untrt!C77*SimParameters!B3</f>
+        <v>2.6400000000000004E-3</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="1"/>
+        <v>0.90736000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>1</v>
+      </c>
+      <c r="B78" s="10">
+        <v>35</v>
+      </c>
+      <c r="C78" s="10">
+        <f>potential_preg_untrt!C78*SimParameters!B3</f>
+        <v>1.8480000000000005E-4</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E78" s="10">
+        <f t="shared" si="1"/>
+        <v>0.69981519999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>1</v>
+      </c>
+      <c r="B79" s="10">
+        <v>36</v>
+      </c>
+      <c r="C79" s="10">
+        <f>potential_preg_untrt!C79*SimParameters!B3</f>
+        <v>2.3760000000000003E-4</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E79" s="10">
+        <f t="shared" si="1"/>
+        <v>0.64976240000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>1</v>
+      </c>
+      <c r="B80" s="10">
+        <v>37</v>
+      </c>
+      <c r="C80" s="10">
+        <f>potential_preg_untrt!C80*SimParameters!B3</f>
+        <v>3.0800000000000006E-4</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E80" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29969200000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>1</v>
+      </c>
+      <c r="B81" s="10">
+        <v>38</v>
+      </c>
+      <c r="C81" s="10">
+        <f>potential_preg_untrt!C81*SimParameters!B3</f>
+        <v>3.6960000000000009E-4</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E81" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29963040000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>1</v>
+      </c>
+      <c r="B82" s="10">
+        <v>39</v>
+      </c>
+      <c r="C82" s="10">
+        <f>potential_preg_untrt!C82*SimParameters!B3</f>
+        <v>5.3680000000000004E-4</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E82" s="10">
+        <f t="shared" si="1"/>
+        <v>0.29946320000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>1</v>
+      </c>
+      <c r="B83" s="10">
+        <v>40</v>
+      </c>
+      <c r="C83" s="10">
+        <f>potential_preg_untrt!C83*SimParameters!B3</f>
+        <v>9.5040000000000012E-4</v>
+      </c>
+      <c r="D83" s="10">
+        <f>1-C83</f>
+        <v>0.99904959999999998</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>2</v>
+      </c>
+      <c r="B84" s="11">
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
+        <f>potential_preg_untrt!C84*SimParameters!B3</f>
+        <v>0.192</v>
+      </c>
+      <c r="D84" s="11">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f>1-D84-C84</f>
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>2</v>
+      </c>
+      <c r="B85" s="11">
+        <v>1</v>
+      </c>
+      <c r="C85" s="11">
+        <f>potential_preg_untrt!C85*SimParameters!B3</f>
+        <v>0.192</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f>1-D85-C85</f>
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>2</v>
+      </c>
+      <c r="B86" s="11">
+        <v>2</v>
+      </c>
+      <c r="C86" s="11">
+        <f>potential_preg_untrt!C86*SimParameters!B3</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D86" s="11">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f>1-D86-C86</f>
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>2</v>
+      </c>
+      <c r="B87" s="11">
+        <v>3</v>
+      </c>
+      <c r="C87" s="11">
+        <f>potential_preg_untrt!C87*SimParameters!B3</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D87" s="11">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f>1-D87-C87</f>
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>2</v>
+      </c>
+      <c r="B88" s="11">
+        <v>4</v>
+      </c>
+      <c r="C88" s="11">
+        <f>potential_preg_untrt!C88*SimParameters!B3</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D88" s="11">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f>1-D88-C88</f>
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>2</v>
+      </c>
+      <c r="B89" s="11">
+        <v>5</v>
+      </c>
+      <c r="C89" s="11">
+        <f>potential_preg_untrt!C89*SimParameters!B3</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" ref="E89:E123" si="2">1-C89-D89</f>
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="11">
+        <v>2</v>
+      </c>
+      <c r="B90" s="11">
+        <v>6</v>
+      </c>
+      <c r="C90" s="11">
+        <f>potential_preg_untrt!C90*SimParameters!B3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
+        <v>2</v>
+      </c>
+      <c r="B91" s="11">
+        <v>7</v>
+      </c>
+      <c r="C91" s="11">
+        <f>potential_preg_untrt!C91*SimParameters!B3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D91" s="11">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
+        <v>2</v>
+      </c>
+      <c r="B92" s="11">
+        <v>8</v>
+      </c>
+      <c r="C92" s="11">
+        <f>potential_preg_untrt!C92*SimParameters!B3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D92" s="11">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
+        <v>2</v>
+      </c>
+      <c r="B93" s="11">
+        <v>9</v>
+      </c>
+      <c r="C93" s="11">
+        <f>potential_preg_untrt!C93*SimParameters!B3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D93" s="11">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
+        <v>2</v>
+      </c>
+      <c r="B94" s="11">
+        <v>10</v>
+      </c>
+      <c r="C94" s="11">
+        <f>potential_preg_untrt!C94*SimParameters!B3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
+        <v>2</v>
+      </c>
+      <c r="B95" s="11">
+        <v>11</v>
+      </c>
+      <c r="C95" s="11">
+        <f>potential_preg_untrt!C95*SimParameters!B3</f>
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97119999999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="11">
+        <v>2</v>
+      </c>
+      <c r="B96" s="11">
+        <v>12</v>
+      </c>
+      <c r="C96" s="11">
+        <f>potential_preg_untrt!C96*SimParameters!B3</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
+        <v>2</v>
+      </c>
+      <c r="B97" s="11">
+        <v>13</v>
+      </c>
+      <c r="C97" s="11">
+        <f>potential_preg_untrt!C97*SimParameters!B3</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="11">
+        <v>2</v>
+      </c>
+      <c r="B98" s="11">
+        <v>14</v>
+      </c>
+      <c r="C98" s="11">
+        <f>potential_preg_untrt!C98*SimParameters!B3</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
+        <v>2</v>
+      </c>
+      <c r="B99" s="11">
+        <v>15</v>
+      </c>
+      <c r="C99" s="11">
+        <f>potential_preg_untrt!C99*SimParameters!B3</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="11">
+        <v>2</v>
+      </c>
+      <c r="B100" s="11">
+        <v>16</v>
+      </c>
+      <c r="C100" s="11">
+        <f>potential_preg_untrt!C100*SimParameters!B3</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="D100" s="11">
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
+        <v>2</v>
+      </c>
+      <c r="B101" s="11">
+        <v>17</v>
+      </c>
+      <c r="C101" s="11">
+        <f>potential_preg_untrt!C101*SimParameters!B3</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="D101" s="11">
+        <v>0</v>
+      </c>
+      <c r="E101" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="11">
+        <v>2</v>
+      </c>
+      <c r="B102" s="11">
+        <v>18</v>
+      </c>
+      <c r="C102" s="11">
+        <f>potential_preg_untrt!C102*SimParameters!B3</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="D102" s="11">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="11">
+        <v>2</v>
+      </c>
+      <c r="B103" s="11">
+        <v>19</v>
+      </c>
+      <c r="C103" s="11">
+        <f>potential_preg_untrt!C103*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
+      <c r="E103" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99712000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="11">
+        <v>2</v>
+      </c>
+      <c r="B104" s="11">
+        <v>20</v>
+      </c>
+      <c r="C104" s="11">
+        <f>potential_preg_untrt!C104*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D104" s="11">
+        <v>0</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99712000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="11">
+        <v>2</v>
+      </c>
+      <c r="B105" s="11">
+        <v>21</v>
+      </c>
+      <c r="C105" s="11">
+        <f>potential_preg_untrt!C105*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D105" s="11">
+        <v>0</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99712000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="11">
+        <v>2</v>
+      </c>
+      <c r="B106" s="11">
+        <v>22</v>
+      </c>
+      <c r="C106" s="11">
+        <f>potential_preg_untrt!C106*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D106" s="11">
+        <v>0</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99712000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="11">
+        <v>2</v>
+      </c>
+      <c r="B107" s="11">
+        <v>23</v>
+      </c>
+      <c r="C107" s="11">
+        <f>potential_preg_untrt!C107*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="2"/>
+        <v>0.99712000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="11">
+        <v>2</v>
+      </c>
+      <c r="B108" s="11">
+        <v>24</v>
+      </c>
+      <c r="C108" s="11">
+        <f>potential_preg_untrt!C108*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D108" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98712</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="11">
+        <v>2</v>
+      </c>
+      <c r="B109" s="11">
+        <v>25</v>
+      </c>
+      <c r="C109" s="11">
+        <f>potential_preg_untrt!C109*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D109" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98712</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="11">
+        <v>2</v>
+      </c>
+      <c r="B110" s="11">
+        <v>26</v>
+      </c>
+      <c r="C110" s="11">
+        <f>potential_preg_untrt!C110*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D110" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E110" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98211999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="11">
+        <v>2</v>
+      </c>
+      <c r="B111" s="11">
+        <v>27</v>
+      </c>
+      <c r="C111" s="11">
+        <f>potential_preg_untrt!C111*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D111" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E111" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98211999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="11">
+        <v>2</v>
+      </c>
+      <c r="B112" s="11">
+        <v>28</v>
+      </c>
+      <c r="C112" s="11">
+        <f>potential_preg_untrt!C112*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E112" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97711999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="11">
+        <v>2</v>
+      </c>
+      <c r="B113" s="11">
+        <v>29</v>
+      </c>
+      <c r="C113" s="11">
+        <f>potential_preg_untrt!C113*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E113" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97711999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="11">
+        <v>2</v>
+      </c>
+      <c r="B114" s="11">
+        <v>30</v>
+      </c>
+      <c r="C114" s="11">
+        <f>potential_preg_untrt!C114*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D114" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E114" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97211999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="11">
+        <v>2</v>
+      </c>
+      <c r="B115" s="11">
+        <v>31</v>
+      </c>
+      <c r="C115" s="11">
+        <f>potential_preg_untrt!C115*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E115" s="11">
+        <f t="shared" si="2"/>
+        <v>0.96711999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="11">
+        <v>2</v>
+      </c>
+      <c r="B116" s="11">
+        <v>32</v>
+      </c>
+      <c r="C116" s="11">
+        <f>potential_preg_untrt!C116*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D116" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E116" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90712000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="11">
+        <v>2</v>
+      </c>
+      <c r="B117" s="11">
+        <v>33</v>
+      </c>
+      <c r="C117" s="11">
+        <f>potential_preg_untrt!C117*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E117" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90712000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="11">
+        <v>2</v>
+      </c>
+      <c r="B118" s="11">
+        <v>34</v>
+      </c>
+      <c r="C118" s="11">
+        <f>potential_preg_untrt!C118*SimParameters!B3</f>
+        <v>2.8800000000000002E-3</v>
+      </c>
+      <c r="D118" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="E118" s="11">
+        <f t="shared" si="2"/>
+        <v>0.90712000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="11">
+        <v>2</v>
+      </c>
+      <c r="B119" s="11">
+        <v>35</v>
+      </c>
+      <c r="C119" s="11">
+        <f>potential_preg_untrt!C119*SimParameters!B3</f>
+        <v>2.0160000000000002E-4</v>
+      </c>
+      <c r="D119" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E119" s="11">
+        <f t="shared" si="2"/>
+        <v>0.69979839999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="11">
+        <v>2</v>
+      </c>
+      <c r="B120" s="11">
+        <v>36</v>
+      </c>
+      <c r="C120" s="11">
+        <f>potential_preg_untrt!C120*SimParameters!B3</f>
+        <v>2.5920000000000001E-4</v>
+      </c>
+      <c r="D120" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E120" s="11">
+        <f t="shared" si="2"/>
+        <v>0.64974080000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="11">
+        <v>2</v>
+      </c>
+      <c r="B121" s="11">
+        <v>37</v>
+      </c>
+      <c r="C121" s="11">
+        <f>potential_preg_untrt!C121*SimParameters!B3</f>
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="D121" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E121" s="11">
+        <f t="shared" si="2"/>
+        <v>0.29966400000000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="11">
+        <v>2</v>
+      </c>
+      <c r="B122" s="11">
+        <v>38</v>
+      </c>
+      <c r="C122" s="11">
+        <f>potential_preg_untrt!C122*SimParameters!B3</f>
+        <v>4.0320000000000004E-4</v>
+      </c>
+      <c r="D122" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E122" s="11">
+        <f t="shared" si="2"/>
+        <v>0.2995968</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="11">
+        <v>2</v>
+      </c>
+      <c r="B123" s="11">
+        <v>39</v>
+      </c>
+      <c r="C123" s="11">
+        <f>potential_preg_untrt!C123*SimParameters!B3</f>
+        <v>5.8559999999999992E-4</v>
+      </c>
+      <c r="D123" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E123" s="11">
+        <f t="shared" si="2"/>
+        <v>0.29941440000000008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="11">
+        <v>2</v>
+      </c>
+      <c r="B124" s="11">
+        <v>40</v>
+      </c>
+      <c r="C124" s="11">
+        <f>potential_preg_untrt!C124*SimParameters!B3</f>
+        <v>1.0368E-3</v>
+      </c>
+      <c r="D124" s="11">
+        <f>1-C124</f>
+        <v>0.99896320000000005</v>
+      </c>
+      <c r="E124" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCEC42C-213B-4245-8F9C-C0F65FBC0D09}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -2691,22 +5865,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -3231,7 +6405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B136535-DC0E-F74A-BC9C-9C0291FB9B47}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3247,7 +6421,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -3309,7 +6483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C0E0C-D6E1-F442-8735-4FA62BD9AC1D}">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -3325,10 +6499,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3664,7 +6838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFC6947-DBBF-D243-8019-94691EC417BF}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -4483,7 +7657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0657A824-9110-B347-821D-B64D54D407AE}">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -5375,15 +8549,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F311363ECB49C45BE6A1ABA8AA4E3C9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcab42b681813b96043c0b869577973d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7962a6ab-b148-4fb3-9b24-47c6fd02e414" xmlns:ns3="78c38721-2d96-443e-bd32-82c62d4eed8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b36b52368701cf0b88ba8d42da5a3441" ns2:_="" ns3:_="">
     <xsd:import namespace="7962a6ab-b148-4fb3-9b24-47c6fd02e414"/>
@@ -5608,15 +8773,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC4DEEE-E4C1-4BDA-9F3A-10B42714F00A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB1F164-DDC9-4622-8588-A1C1F4AFED79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5633,4 +8799,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC4DEEE-E4C1-4BDA-9F3A-10B42714F00A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>